--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52886.98280708715</v>
+        <v>-51363.16398003575</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25694028.27108955</v>
+        <v>25841374.97493688</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10945934.67429403</v>
+        <v>11090349.17873481</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4351951.811330169</v>
+        <v>4242061.026439313</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>383.0646100373297</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.057407276233985</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>36.49343129774562</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.22625797330137</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>375.9790740437535</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.26988917406528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>173.5591556145158</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>101.5203283891055</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1117,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1145,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>74.47479140598074</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1196,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>225.9763411359356</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1214,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>105.3918965517242</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
@@ -1227,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>159.1000412385906</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>33.51960208664781</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>208.7796077154266</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>62.82088317610075</v>
+        <v>62.82088317610085</v>
       </c>
       <c r="T12" t="n">
         <v>128.8768572327044</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>130.1207500068997</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>169.016847353155</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.350305051013961</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>40.06462947613758</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1821,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>198.5841090309619</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>159.1000412385906</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>67.65538200560648</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>271.5592753367715</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1937,7 @@
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>84.53123883647797</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H18" t="n">
         <v>41.31829566194965</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>93.35087433606206</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,10 +2064,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>191.3515187554047</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>24.07382947181808</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>286.7169436932594</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>20.05812230028464</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>292.1413474942973</v>
+        <v>59.01766549720455</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>115.4012337133193</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225757</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -2606,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>129.084621233348</v>
       </c>
       <c r="X26" t="n">
-        <v>374.0142720497965</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>64.58216279976261</v>
+        <v>159.1000412385906</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>356.3527905226164</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>376.2735547898423</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2953,16 +2955,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>63.62417508254254</v>
       </c>
       <c r="G31" t="n">
-        <v>45.94361071252661</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.66580750658341</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>116.9183520828753</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3123,7 +3125,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H33" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>157.4552805913616</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,16 +3246,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3724354580814918</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>60.76911877777854</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3323,13 +3325,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>114.7009448702738</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>16.87089136023317</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>305.5961147094268</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>228.9867666369125</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3599,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H39" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>41.06280119062065</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>102.0031432265131</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3740,11 +3742,11 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>238.0068903360387</v>
       </c>
       <c r="W41" t="n">
-        <v>388.4114697874283</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,7 +3821,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C42" t="n">
-        <v>105.3918965517242</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D42" t="n">
         <v>94.13938596491228</v>
@@ -3898,25 +3900,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0.3200579030395715</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>93.41827306551629</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>159.4921886272153</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>181.0765084323517</v>
+        <v>203.1869771812474</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0765084323517</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>181.0765084323517</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4071,7 +4073,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4107,22 +4109,22 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>60.01823679977407</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4135,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>72.79119407685955</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>181.0765084323517</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>161.7160989629019</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>464.8993883704147</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="C2" t="n">
-        <v>464.8993883704147</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D2" t="n">
-        <v>464.8993883704147</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E2" t="n">
-        <v>464.8993883704147</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>37.03195877962247</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4328,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4367,13 +4369,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4400,28 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>413.1040494299291</v>
+        <v>260.2692770611121</v>
       </c>
       <c r="C4" t="n">
-        <v>413.1040494299291</v>
+        <v>87.707565544337</v>
       </c>
       <c r="D4" t="n">
-        <v>413.1040494299291</v>
+        <v>87.707565544337</v>
       </c>
       <c r="E4" t="n">
-        <v>413.1040494299291</v>
+        <v>87.707565544337</v>
       </c>
       <c r="F4" t="n">
-        <v>236.3969953916854</v>
+        <v>87.707565544337</v>
       </c>
       <c r="G4" t="n">
-        <v>70.80572041751302</v>
+        <v>87.707565544337</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>87.707565544337</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4513,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1005.1071068273</v>
       </c>
       <c r="W4" t="n">
-        <v>885.9154747824084</v>
+        <v>733.0807024135913</v>
       </c>
       <c r="X4" t="n">
-        <v>640.5237201158209</v>
+        <v>487.6889477470038</v>
       </c>
       <c r="Y4" t="n">
-        <v>413.1040494299291</v>
+        <v>260.2692770611121</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>461.8110981924006</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C5" t="n">
-        <v>461.8110981924006</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D5" t="n">
-        <v>461.8110981924006</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4565,19 +4567,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4601,16 +4603,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>1317.406587611979</v>
       </c>
       <c r="Y5" t="n">
-        <v>461.8110981924006</v>
+        <v>1317.406587611979</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4637,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4644,19 +4646,19 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0602407069692</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O6" t="n">
         <v>739.9048540962709</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.2559470001092</v>
+        <v>365.0515783881802</v>
       </c>
       <c r="C7" t="n">
-        <v>209.2559470001092</v>
+        <v>365.0515783881802</v>
       </c>
       <c r="D7" t="n">
-        <v>209.2559470001092</v>
+        <v>365.0515783881802</v>
       </c>
       <c r="E7" t="n">
-        <v>209.2559470001092</v>
+        <v>365.0515783881802</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>365.0515783881802</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4747,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X7" t="n">
-        <v>209.2559470001092</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.2559470001092</v>
+        <v>365.0515783881802</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C8" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D8" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E8" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G8" t="n">
         <v>33.94366860160834</v>
@@ -4802,22 +4804,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4835,19 +4837,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1621.956368054174</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V8" t="n">
-        <v>1259.339417988001</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W8" t="n">
-        <v>854.4839633990338</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X8" t="n">
-        <v>435.3414999783445</v>
+        <v>442.2297923019549</v>
       </c>
       <c r="Y8" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>194.6507809638211</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="C10" t="n">
-        <v>194.6507809638211</v>
+        <v>719.7603595988195</v>
       </c>
       <c r="D10" t="n">
-        <v>194.6507809638211</v>
+        <v>719.7603595988195</v>
       </c>
       <c r="E10" t="n">
-        <v>194.6507809638211</v>
+        <v>550.0023558495568</v>
       </c>
       <c r="F10" t="n">
-        <v>194.6507809638211</v>
+        <v>373.295301811313</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>207.7040268371407</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>67.80185252751522</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4969,7 +4971,7 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
         <v>1181.483761245743</v>
@@ -4993,19 +4995,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X10" t="n">
-        <v>613.8890703687</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="Y10" t="n">
-        <v>386.4693996828083</v>
+        <v>892.3220711155946</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.94366860160834</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C11" t="n">
-        <v>33.94366860160834</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D11" t="n">
-        <v>33.94366860160834</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E11" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F11" t="n">
         <v>33.94366860160834</v>
@@ -5042,16 +5044,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K11" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M11" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N11" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O11" t="n">
         <v>687.9235674375537</v>
@@ -5069,22 +5071,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T11" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U11" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1266.227710311611</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>861.3722557226442</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>442.2297923019549</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y11" t="n">
-        <v>33.94366860160834</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="12">
@@ -5097,7 +5099,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D12" t="n">
         <v>338.5686635760967</v>
@@ -5106,10 +5108,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F12" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5124,16 +5126,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>262.5057921365585</v>
+        <v>514.6475351736976</v>
       </c>
       <c r="C13" t="n">
-        <v>262.5057921365585</v>
+        <v>342.0858236569226</v>
       </c>
       <c r="D13" t="n">
-        <v>262.5057921365585</v>
+        <v>342.0858236569226</v>
       </c>
       <c r="E13" t="n">
-        <v>262.5057921365585</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F13" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G13" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H13" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>452.1535503695694</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M13" t="n">
-        <v>452.1535503695694</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N13" t="n">
         <v>761.8145120199619</v>
@@ -5221,28 +5223,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S13" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T13" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U13" t="n">
-        <v>992.2117929153466</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V13" t="n">
-        <v>705.2562847857771</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W13" t="n">
-        <v>433.2298803720686</v>
+        <v>1179.277579245164</v>
       </c>
       <c r="X13" t="n">
-        <v>262.5057921365585</v>
+        <v>933.8858245785766</v>
       </c>
       <c r="Y13" t="n">
-        <v>262.5057921365585</v>
+        <v>706.4661538926848</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>462.52534286434</v>
+        <v>462.9421322372</v>
       </c>
       <c r="C14" t="n">
-        <v>462.52534286434</v>
+        <v>462.9421322372</v>
       </c>
       <c r="D14" t="n">
-        <v>462.52534286434</v>
+        <v>462.9421322372</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5279,16 +5281,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O14" t="n">
         <v>687.9235674375537</v>
@@ -5312,16 +5314,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V14" t="n">
-        <v>1694.809384574343</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W14" t="n">
-        <v>1289.953929985376</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X14" t="n">
-        <v>870.8114665646866</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="Y14" t="n">
-        <v>462.52534286434</v>
+        <v>889.2417027221078</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J15" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K15" t="n">
-        <v>804.6185656731816</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L15" t="n">
-        <v>1159.957753041174</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M15" t="n">
-        <v>1159.957753041174</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N15" t="n">
-        <v>1159.957753041174</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O15" t="n">
-        <v>1159.957753041174</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P15" t="n">
-        <v>1159.957753041174</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q15" t="n">
         <v>1580.010651986078</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.8779941617646</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C16" t="n">
-        <v>711.8779941617646</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D16" t="n">
-        <v>546.0000013632873</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E16" t="n">
-        <v>376.2419976140245</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F16" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G16" t="n">
         <v>33.94366860160834</v>
@@ -5434,52 +5436,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K16" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L16" t="n">
-        <v>688.8848573262783</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M16" t="n">
-        <v>1108.937756271182</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N16" t="n">
-        <v>1528.990655216085</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O16" t="n">
-        <v>1528.990655216085</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P16" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U16" t="n">
-        <v>1429.886162364244</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.296153242061</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W16" t="n">
-        <v>957.2697488283521</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X16" t="n">
-        <v>711.8779941617646</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.8779941617646</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C17" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D17" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E17" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F17" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
         <v>33.94366860160834</v>
@@ -5543,22 +5545,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T17" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U17" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V17" t="n">
-        <v>1114.499252887282</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W17" t="n">
-        <v>709.6437982983157</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X17" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y17" t="n">
-        <v>435.3414999783445</v>
+        <v>102.2824383042412</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q18" t="n">
         <v>1580.010651986078</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>466.6771853775295</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C19" t="n">
-        <v>294.1154738607544</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D19" t="n">
-        <v>128.2374810622771</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E19" t="n">
         <v>33.94366860160834</v>
@@ -5671,25 +5673,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L19" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M19" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N19" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O19" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
@@ -5698,25 +5700,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W19" t="n">
-        <v>885.9154747824084</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X19" t="n">
-        <v>885.9154747824084</v>
+        <v>261.3633392875001</v>
       </c>
       <c r="Y19" t="n">
-        <v>658.4958040965166</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>927.4534741707607</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C20" t="n">
-        <v>489.311001354184</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L20" t="n">
-        <v>1149.495958523325</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M20" t="n">
-        <v>1149.495958523325</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N20" t="n">
-        <v>1293.567921177998</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O20" t="n">
-        <v>1954.407975719776</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>1672.866430613934</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>1672.866430613934</v>
       </c>
       <c r="U20" t="n">
-        <v>2410.838523748444</v>
+        <v>1672.866430613934</v>
       </c>
       <c r="V20" t="n">
-        <v>2048.221573682271</v>
+        <v>1310.249480547761</v>
       </c>
       <c r="W20" t="n">
-        <v>1643.366119093304</v>
+        <v>1310.249480547761</v>
       </c>
       <c r="X20" t="n">
-        <v>1353.753044655668</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="Y20" t="n">
-        <v>1353.753044655668</v>
+        <v>891.1070171270717</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>903.8972536055599</v>
+        <v>739.1091603006143</v>
       </c>
       <c r="C22" t="n">
-        <v>731.3355420887848</v>
+        <v>566.5474487838393</v>
       </c>
       <c r="D22" t="n">
-        <v>565.4575492903075</v>
+        <v>400.669455985362</v>
       </c>
       <c r="E22" t="n">
-        <v>395.6995455410447</v>
+        <v>230.9114522360993</v>
       </c>
       <c r="F22" t="n">
-        <v>218.9924915028009</v>
+        <v>54.20439819785545</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1566.63415311139</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>2651.821657388744</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T22" t="n">
-        <v>2405.942210967199</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U22" t="n">
-        <v>2127.509210220304</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V22" t="n">
-        <v>1840.553702090735</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W22" t="n">
-        <v>1568.527297677026</v>
+        <v>1403.739204372081</v>
       </c>
       <c r="X22" t="n">
-        <v>1323.135543010439</v>
+        <v>1158.347449705493</v>
       </c>
       <c r="Y22" t="n">
-        <v>1095.715872324547</v>
+        <v>930.9277790196015</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1210.552450530246</v>
+        <v>521.4249017249305</v>
       </c>
       <c r="C23" t="n">
-        <v>1210.552450530246</v>
+        <v>521.4249017249305</v>
       </c>
       <c r="D23" t="n">
-        <v>915.4601803339856</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E23" t="n">
-        <v>481.6854354922808</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F23" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G23" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M23" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N23" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>2449.993599304466</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>2449.993599304466</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>2449.993599304466</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W23" t="n">
-        <v>2045.1381447155</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X23" t="n">
-        <v>2045.1381447155</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="Y23" t="n">
-        <v>1636.852021015153</v>
+        <v>521.4249017249305</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E24" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L24" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M24" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N24" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O24" t="n">
-        <v>404.0232146552985</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R24" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S24" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T24" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U24" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V24" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W24" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X24" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y24" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>922.1364226482442</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C25" t="n">
-        <v>749.5747111314691</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D25" t="n">
-        <v>583.6967183329918</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E25" t="n">
-        <v>413.9387145837291</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F25" t="n">
-        <v>237.2316605454853</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G25" t="n">
-        <v>71.64038557131298</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862856</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K25" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324151</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M25" t="n">
-        <v>1292.433105213328</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370973</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O25" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P25" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>2670.060826431428</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>2670.060826431428</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T25" t="n">
-        <v>2424.181380009883</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U25" t="n">
-        <v>2145.748379262989</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V25" t="n">
-        <v>1858.792871133419</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W25" t="n">
-        <v>1586.766466719711</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X25" t="n">
-        <v>1341.374712053123</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.955041367231</v>
+        <v>1229.568731954216</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1319.391236090724</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="C26" t="n">
-        <v>1319.391236090724</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="D26" t="n">
-        <v>890.8095618279922</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="E26" t="n">
-        <v>462.2278875652606</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F26" t="n">
-        <v>34.36045797446834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G26" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H26" t="n">
         <v>34.36045797446834</v>
@@ -6224,28 +6226,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L26" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M26" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P26" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q26" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R26" t="n">
         <v>1697.183430080417</v>
@@ -6254,22 +6256,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W26" t="n">
-        <v>1697.183430080417</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="X26" t="n">
-        <v>1319.391236090724</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="Y26" t="n">
-        <v>1319.391236090724</v>
+        <v>724.8884439079882</v>
       </c>
     </row>
     <row r="27">
@@ -6282,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6291,34 +6293,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J27" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K27" t="n">
-        <v>804.6185656731816</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L27" t="n">
-        <v>1159.957753041174</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.957753041174</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O27" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>187.8381257054811</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="C28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K28" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M28" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N28" t="n">
-        <v>930.0072868842942</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P28" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T28" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U28" t="n">
-        <v>992.2117929153466</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V28" t="n">
-        <v>705.2562847857771</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W28" t="n">
-        <v>433.2298803720686</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X28" t="n">
-        <v>187.8381257054811</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y28" t="n">
-        <v>187.8381257054811</v>
+        <v>386.4693996828083</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33.94366860160834</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="C29" t="n">
-        <v>33.94366860160834</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="D29" t="n">
-        <v>33.94366860160834</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E29" t="n">
-        <v>33.94366860160834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F29" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G29" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H29" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I29" t="n">
         <v>33.94366860160834</v>
@@ -6464,16 +6466,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L29" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M29" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N29" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O29" t="n">
         <v>687.9235674375537</v>
@@ -6491,22 +6493,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U29" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V29" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W29" t="n">
-        <v>813.0384456815061</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X29" t="n">
-        <v>393.8959822608168</v>
+        <v>1317.1091323129</v>
       </c>
       <c r="Y29" t="n">
-        <v>393.8959822608168</v>
+        <v>1317.1091323129</v>
       </c>
     </row>
     <row r="30">
@@ -6519,19 +6521,19 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
-        <v>338.5686635760967</v>
+        <v>338.5686635760968</v>
       </c>
       <c r="E30" t="n">
-        <v>244.4482489030504</v>
+        <v>244.4482489030505</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>765.256118292778</v>
+        <v>440.5302273853659</v>
       </c>
       <c r="C31" t="n">
-        <v>592.6944067760029</v>
+        <v>267.9685158685908</v>
       </c>
       <c r="D31" t="n">
-        <v>426.8164139775256</v>
+        <v>267.9685158685908</v>
       </c>
       <c r="E31" t="n">
-        <v>257.0584102282629</v>
+        <v>98.21051211932809</v>
       </c>
       <c r="F31" t="n">
-        <v>80.35135619001906</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G31" t="n">
         <v>33.94366860160834</v>
@@ -6643,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T31" t="n">
-        <v>1429.886162364244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U31" t="n">
-        <v>1429.886162364244</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V31" t="n">
-        <v>1429.886162364244</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W31" t="n">
-        <v>1429.886162364244</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X31" t="n">
-        <v>1184.494407697657</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="Y31" t="n">
-        <v>957.0747370117651</v>
+        <v>632.348846104353</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>435.7582893512044</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C32" t="n">
-        <v>435.7582893512044</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D32" t="n">
-        <v>435.7582893512044</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E32" t="n">
-        <v>435.7582893512044</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F32" t="n">
-        <v>435.7582893512044</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G32" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H32" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M32" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="N32" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O32" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P32" t="n">
         <v>1107.976466382457</v>
@@ -6734,16 +6736,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V32" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W32" t="n">
-        <v>1334.566480014244</v>
+        <v>1579.084084542159</v>
       </c>
       <c r="X32" t="n">
-        <v>915.4240165935545</v>
+        <v>1159.94162112147</v>
       </c>
       <c r="Y32" t="n">
-        <v>507.1378928932079</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6770,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6777,25 +6779,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J33" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M33" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N33" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="O33" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q33" t="n">
         <v>1580.010651986078</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>854.5838762389023</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C34" t="n">
-        <v>682.0221647221273</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D34" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E34" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F34" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G34" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H34" t="n">
         <v>33.94366860160834</v>
@@ -6856,25 +6858,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>453.9965675465116</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N34" t="n">
-        <v>874.0494664914149</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O34" t="n">
-        <v>1293.718715717196</v>
+        <v>1233.160939331176</v>
       </c>
       <c r="P34" t="n">
-        <v>1528.990655216085</v>
+        <v>1580.667833301518</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
@@ -6883,25 +6885,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T34" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U34" t="n">
-        <v>1013.629614209975</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V34" t="n">
-        <v>1013.629614209975</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W34" t="n">
-        <v>1013.629614209975</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X34" t="n">
-        <v>1013.629614209975</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y34" t="n">
-        <v>1013.629614209975</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>435.7582893512044</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C35" t="n">
-        <v>435.7582893512044</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D35" t="n">
-        <v>435.7582893512044</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E35" t="n">
-        <v>435.7582893512044</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F35" t="n">
-        <v>435.7582893512044</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G35" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H35" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
@@ -6938,16 +6940,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O35" t="n">
         <v>687.9235674375537</v>
@@ -6962,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1697.183430080417</v>
+        <v>1635.800481820035</v>
       </c>
       <c r="T35" t="n">
-        <v>1477.116202953456</v>
+        <v>1415.733254693074</v>
       </c>
       <c r="U35" t="n">
-        <v>1217.893900270473</v>
+        <v>1156.51095201009</v>
       </c>
       <c r="V35" t="n">
-        <v>855.2769502042993</v>
+        <v>1156.51095201009</v>
       </c>
       <c r="W35" t="n">
-        <v>855.2769502042993</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X35" t="n">
-        <v>436.13448678361</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y35" t="n">
-        <v>436.13448678361</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="36">
@@ -6993,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7002,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7020,22 +7022,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O36" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P36" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q36" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R36" t="n">
         <v>1697.183430080417</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>210.6507226398521</v>
+        <v>322.3649203913872</v>
       </c>
       <c r="C37" t="n">
-        <v>210.6507226398521</v>
+        <v>149.8032088746122</v>
       </c>
       <c r="D37" t="n">
-        <v>210.6507226398521</v>
+        <v>149.8032088746122</v>
       </c>
       <c r="E37" t="n">
-        <v>210.6507226398521</v>
+        <v>149.8032088746122</v>
       </c>
       <c r="F37" t="n">
         <v>33.94366860160834</v>
@@ -7102,10 +7104,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N37" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7120,25 +7122,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T37" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U37" t="n">
-        <v>1434.262679254597</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V37" t="n">
-        <v>1147.307171125027</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W37" t="n">
-        <v>875.2807667113186</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="X37" t="n">
-        <v>629.8890120447311</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="Y37" t="n">
-        <v>402.4693413588393</v>
+        <v>514.1835391103743</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>771.6250763881362</v>
+        <v>667.0580536309141</v>
       </c>
       <c r="C38" t="n">
-        <v>343.0434021254046</v>
+        <v>667.0580536309141</v>
       </c>
       <c r="D38" t="n">
-        <v>343.0434021254046</v>
+        <v>667.0580536309141</v>
       </c>
       <c r="E38" t="n">
-        <v>343.0434021254046</v>
+        <v>667.0580536309141</v>
       </c>
       <c r="F38" t="n">
-        <v>343.0434021254046</v>
+        <v>667.0580536309141</v>
       </c>
       <c r="G38" t="n">
-        <v>34.36045797446834</v>
+        <v>265.6602222541779</v>
       </c>
       <c r="H38" t="n">
         <v>34.36045797446834</v>
@@ -7199,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U38" t="n">
-        <v>1134.24202645431</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V38" t="n">
-        <v>771.6250763881362</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W38" t="n">
-        <v>771.6250763881362</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X38" t="n">
-        <v>771.6250763881362</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="Y38" t="n">
-        <v>771.6250763881362</v>
+        <v>667.0580536309141</v>
       </c>
     </row>
     <row r="39">
@@ -7242,19 +7244,19 @@
         <v>161.064410519212</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I39" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J39" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K39" t="n">
-        <v>804.6185656731816</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L39" t="n">
         <v>1159.957753041174</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>262.5057921365585</v>
+        <v>760.0392898402852</v>
       </c>
       <c r="C40" t="n">
-        <v>262.5057921365585</v>
+        <v>587.4775783235101</v>
       </c>
       <c r="D40" t="n">
-        <v>262.5057921365585</v>
+        <v>587.4775783235101</v>
       </c>
       <c r="E40" t="n">
-        <v>262.5057921365585</v>
+        <v>417.7195745742474</v>
       </c>
       <c r="F40" t="n">
-        <v>262.5057921365585</v>
+        <v>241.0125205360036</v>
       </c>
       <c r="G40" t="n">
-        <v>262.5057921365585</v>
+        <v>75.42124556183123</v>
       </c>
       <c r="H40" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
@@ -7339,10 +7341,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M40" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N40" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7354,28 +7356,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1572.73213077921</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T40" t="n">
-        <v>1572.73213077921</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U40" t="n">
-        <v>1294.299130032316</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V40" t="n">
-        <v>1007.343621902746</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W40" t="n">
-        <v>735.3172174890378</v>
+        <v>1179.277579245164</v>
       </c>
       <c r="X40" t="n">
-        <v>489.9254628224502</v>
+        <v>1179.277579245164</v>
       </c>
       <c r="Y40" t="n">
-        <v>262.5057921365585</v>
+        <v>951.8579085592723</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>462.9421322372</v>
+        <v>1153.05332879786</v>
       </c>
       <c r="C41" t="n">
-        <v>34.36045797446834</v>
+        <v>1153.05332879786</v>
       </c>
       <c r="D41" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E41" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F41" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G41" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7436,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U41" t="n">
-        <v>1217.893900270473</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V41" t="n">
-        <v>855.2769502042993</v>
+        <v>1153.05332879786</v>
       </c>
       <c r="W41" t="n">
-        <v>462.9421322372</v>
+        <v>1153.05332879786</v>
       </c>
       <c r="X41" t="n">
-        <v>462.9421322372</v>
+        <v>1153.05332879786</v>
       </c>
       <c r="Y41" t="n">
-        <v>462.9421322372</v>
+        <v>1153.05332879786</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7496,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M42" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N42" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O42" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7543,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1024.341879988165</v>
+        <v>262.8290829477096</v>
       </c>
       <c r="C43" t="n">
-        <v>851.7801684713901</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="D43" t="n">
-        <v>685.9021756729128</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E43" t="n">
-        <v>516.14417192365</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F43" t="n">
-        <v>339.4371178854062</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G43" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H43" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K43" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L43" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M43" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N43" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="O43" t="n">
-        <v>1181.483761245743</v>
+        <v>1291.875698540254</v>
       </c>
       <c r="P43" t="n">
-        <v>1528.990655216085</v>
+        <v>1639.382592510596</v>
       </c>
       <c r="Q43" t="n">
         <v>1697.183430080417</v>
@@ -7597,22 +7599,22 @@
         <v>1537.942061378414</v>
       </c>
       <c r="T43" t="n">
-        <v>1537.942061378414</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U43" t="n">
-        <v>1537.942061378414</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V43" t="n">
-        <v>1537.942061378414</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W43" t="n">
-        <v>1537.942061378414</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X43" t="n">
-        <v>1443.580169393044</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="Y43" t="n">
-        <v>1216.160498707152</v>
+        <v>454.6477016666967</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>175.5893415101591</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C44" t="n">
-        <v>175.5893415101591</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D44" t="n">
-        <v>14.48612067458814</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E44" t="n">
-        <v>14.48612067458814</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F44" t="n">
-        <v>14.48612067458814</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48612067458814</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>193.7518640226163</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K44" t="n">
-        <v>193.7518640226163</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L44" t="n">
-        <v>193.7518640226163</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M44" t="n">
-        <v>193.7518640226163</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N44" t="n">
-        <v>193.7518640226163</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O44" t="n">
-        <v>196.6204822802937</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>375.8862256283219</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>555.1519689763501</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U44" t="n">
-        <v>541.4004696563243</v>
+        <v>1491.944059190268</v>
       </c>
       <c r="V44" t="n">
-        <v>358.4949055832417</v>
+        <v>1129.327109124095</v>
       </c>
       <c r="W44" t="n">
-        <v>175.5893415101591</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X44" t="n">
-        <v>175.5893415101591</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y44" t="n">
-        <v>175.5893415101591</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>478.9222134820934</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>372.4657523187357</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>277.3754634652889</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>183.2550487922426</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>99.87121040840425</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>14.48612067458814</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>40.54979383504573</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>219.8155371830739</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>219.8155371830739</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>399.0812805311022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M45" t="n">
-        <v>578.3470238791303</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N45" t="n">
-        <v>607.133255635067</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O45" t="n">
-        <v>607.133255635067</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P45" t="n">
-        <v>607.133255635067</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>607.133255635067</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>660.85059617779</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>600.2261145618565</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>600.2261145618565</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>600.2261145618565</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>600.2261145618565</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>600.2261145618565</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>600.2261145618565</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14.48612067458814</v>
+        <v>759.7153521607122</v>
       </c>
       <c r="C46" t="n">
-        <v>14.48612067458814</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D46" t="n">
-        <v>14.48612067458814</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E46" t="n">
-        <v>14.48612067458814</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F46" t="n">
-        <v>14.48612067458814</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G46" t="n">
-        <v>14.48612067458814</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>101.065805839278</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>197.5817721690183</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>197.5817721690183</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>376.8475155170465</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>556.1132588650746</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O46" t="n">
-        <v>556.1132588650746</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>556.1132588650746</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>702.8882124347788</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>543.6468437327754</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T46" t="n">
-        <v>360.7412796596929</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U46" t="n">
-        <v>177.8357155866103</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V46" t="n">
-        <v>14.48612067458814</v>
+        <v>1005.1071068273</v>
       </c>
       <c r="W46" t="n">
-        <v>14.48612067458814</v>
+        <v>1005.1071068273</v>
       </c>
       <c r="X46" t="n">
-        <v>14.48612067458814</v>
+        <v>759.7153521607122</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.48612067458814</v>
+        <v>759.7153521607122</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8052,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8134,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8292,22 +8294,22 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P6" t="n">
         <v>424.2958575201044</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O8" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P8" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8617,10 +8619,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -8690,19 +8692,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -8772,19 +8774,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8845,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>312.7888501519116</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -8927,7 +8929,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
@@ -9000,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P15" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L15" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>288.796249040161</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>296.5687363523682</v>
+        <v>203.2851159259061</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N18" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,16 +9412,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9556,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9565,19 +9567,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>145.5272350047205</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9729,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,10 +9895,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O27" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L27" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10030,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>58.38468441396105</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,16 +10357,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>236.2898988798406</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -10425,28 +10427,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>262.4693064538401</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O33" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -10668,7 +10670,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>52.98895607821123</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10750,13 +10752,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9284720888814</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10987,13 +10989,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11142,7 +11144,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11215,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11227,16 +11229,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O43" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>58.38468441396094</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0765084323517</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.89759419967416</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11373,28 +11375,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>29.07700177367349</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11455,22 +11457,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>97.49087508054576</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -22547,19 +22549,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>50.69643805108126</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>394.3264457867348</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22607,13 +22609,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22707,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -22714,16 +22716,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>102.0097212687836</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>34.54709175977005</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,19 +22755,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22781,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22841,16 +22843,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>38.97196474272886</v>
       </c>
       <c r="Y5" t="n">
-        <v>355.9333732892778</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22951,16 +22953,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>1.380827883345518</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>62.41503383532515</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23005,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23033,7 +23035,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -23075,7 +23077,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>182.1552882501725</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>188.9746976505468</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.835320985839957</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>54.25374764642361</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23233,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23258,16 +23260,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23309,22 +23311,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>150.2111728500852</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>37.93967370487042</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>73.92098976676664</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23513,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>356.6404755144978</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>364.1386329872055</v>
       </c>
     </row>
     <row r="15">
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>85.5018440173119</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>83.837795881331</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>354.3811927744522</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23744,7 +23746,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23783,7 +23785,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>143.3917634497109</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>74.70954937570805</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>51.58631836451698</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>58.74152560618328</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>128.234095093223</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.877239924146</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>139.4093394830026</v>
+        <v>372.5330214800953</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,13 +24259,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>74.49919881847789</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24446,19 +24448,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24494,19 +24496,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>271.722278809729</v>
       </c>
       <c r="X26" t="n">
-        <v>40.93676673668585</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>106.2539316018447</v>
+        <v>11.73605316301666</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -24619,7 +24621,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>65.68378425744231</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -24686,10 +24688,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
@@ -24698,7 +24700,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,19 +24733,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>38.67748399664015</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>111.3158084153188</v>
       </c>
       <c r="G31" t="n">
-        <v>117.991751511904</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.3707672734753</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24929,13 +24931,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,10 +24976,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>283.8885479602017</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.44515194043566</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6641393219772</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25166,13 +25168,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>22.04623630022282</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25211,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -25321,7 +25323,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>60.23903862758758</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -25360,22 +25362,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>258.7777793791926</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,7 +25393,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25403,10 +25405,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>91.7877383535419</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>57.25208637430342</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.44035137590856</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>55.64581178847021</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,10 +25630,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25640,13 +25642,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>120.983890229473</v>
       </c>
       <c r="W41" t="n">
-        <v>12.39543025564871</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.5160364985677</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>149.5195640544054</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>272.0584983500846</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25877,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25919,13 +25921,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>75.55357122380155</v>
+        <v>53.44310247490591</v>
       </c>
       <c r="V44" t="n">
-        <v>177.91427213316</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>219.7303916107253</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -25959,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25995,22 +25997,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>68.85862043293034</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,22 +26025,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>98.04490032474776</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>62.34414352497757</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>94.572162307074</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>122.3698540853719</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>366861.1889988192</v>
+        <v>366861.188998819</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>366861.1889988191</v>
+        <v>366861.1889988192</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>366861.1889988191</v>
+        <v>366861.1889988192</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>516084.9559891794</v>
+        <v>366861.1889988193</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>516084.9559891794</v>
+        <v>366861.1889988191</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>366861.1889988193</v>
+        <v>366861.1889988192</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>366861.1889988191</v>
+        <v>366861.1889988192</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>366861.1889988193</v>
+        <v>366861.1889988192</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>366861.1889988192</v>
+        <v>366861.1889988191</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>366861.1889988192</v>
+        <v>366861.1889988191</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156565.1467151069</v>
+        <v>366861.1889988192</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>66111.28565914044</v>
       </c>
       <c r="D2" t="n">
-        <v>66111.28565914044</v>
+        <v>66111.28565914043</v>
       </c>
       <c r="E2" t="n">
         <v>66111.28565914044</v>
@@ -26329,10 +26331,10 @@
         <v>66111.28565914044</v>
       </c>
       <c r="H2" t="n">
-        <v>93002.58782592393</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="I2" t="n">
-        <v>93002.58782592393</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="J2" t="n">
         <v>66111.28565914044</v>
@@ -26347,13 +26349,13 @@
         <v>66111.28565914044</v>
       </c>
       <c r="N2" t="n">
-        <v>66111.28565914044</v>
+        <v>66111.28565914043</v>
       </c>
       <c r="O2" t="n">
-        <v>66111.28565914046</v>
+        <v>66111.28565914043</v>
       </c>
       <c r="P2" t="n">
-        <v>28214.27681405946</v>
+        <v>66111.28565914043</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47377.58197227423</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,10 +26435,10 @@
         <v>12632.2219864234</v>
       </c>
       <c r="H4" t="n">
-        <v>17770.48083418234</v>
+        <v>12632.2219864234</v>
       </c>
       <c r="I4" t="n">
-        <v>17770.48083418234</v>
+        <v>12632.2219864234</v>
       </c>
       <c r="J4" t="n">
         <v>12632.2219864234</v>
@@ -26457,7 +26459,7 @@
         <v>12632.2219864234</v>
       </c>
       <c r="P4" t="n">
-        <v>5391.04639016079</v>
+        <v>12632.2219864234</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="J5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>11009.45171268698</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26525,7 +26527,7 @@
         <v>-5945.7244645053</v>
       </c>
       <c r="D6" t="n">
-        <v>-5945.7244645053</v>
+        <v>-5945.724464505314</v>
       </c>
       <c r="E6" t="n">
         <v>27681.8755354947</v>
@@ -26537,13 +26539,13 @@
         <v>27681.8755354947</v>
       </c>
       <c r="H6" t="n">
-        <v>-30975.58692803358</v>
+        <v>27681.8755354947</v>
       </c>
       <c r="I6" t="n">
-        <v>34647.18242998387</v>
+        <v>27681.8755354947</v>
       </c>
       <c r="J6" t="n">
-        <v>-19695.70643677953</v>
+        <v>-83332.58980949549</v>
       </c>
       <c r="K6" t="n">
         <v>27681.8755354947</v>
@@ -26552,16 +26554,16 @@
         <v>27681.8755354947</v>
       </c>
       <c r="M6" t="n">
-        <v>27681.8755354947</v>
+        <v>27681.87553549471</v>
       </c>
       <c r="N6" t="n">
-        <v>27681.8755354947</v>
+        <v>27681.87553549468</v>
       </c>
       <c r="O6" t="n">
-        <v>27681.87553549471</v>
+        <v>27681.87553549468</v>
       </c>
       <c r="P6" t="n">
-        <v>11813.77871121169</v>
+        <v>27681.87553549468</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34772,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,13 +34786,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35012,22 +35014,22 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P6" t="n">
         <v>424.2958575201044</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O8" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P8" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35337,10 +35339,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -35492,19 +35494,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>312.7888501519116</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -35647,7 +35649,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35659,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P15" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L15" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>288.796249040161</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>296.5687363523682</v>
+        <v>203.2851159259061</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N18" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36130,16 +36132,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36200,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,19 +36287,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36370,13 +36372,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>145.5272350047205</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36449,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36613,10 +36615,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O27" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L27" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>58.38468441396105</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37075,16 +37077,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>236.2898988798406</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -37145,28 +37147,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>262.4693064538401</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O33" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -37388,7 +37390,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>52.98895607821123</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37472,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9284720888814</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37707,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37862,7 +37864,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -37947,16 +37949,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O43" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>58.38468441396094</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0765084323517</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.89759419967416</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>29.07700177367349</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094342</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>97.49087508054576</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51363.16398003575</v>
+        <v>-57598.48147919072</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25841374.97493688</v>
+        <v>25841374.97493689</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4242061.026439313</v>
+        <v>4242061.026439314</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>383.0646100373297</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>329.4976936655855</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>113.7582618061877</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.22625797330137</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -882,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>215.2285648127963</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>375.9790740437535</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>82.55000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>57.18604630597726</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>101.5203283891055</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1116,13 +1116,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>225.9763411359356</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>64.89926798310691</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517242</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>101.0380264236921</v>
       </c>
       <c r="I10" t="n">
-        <v>33.51960208664781</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>374.4268935289279</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>260.3836328115955</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>84.53123883647795</v>
+        <v>84.53123883647797</v>
       </c>
       <c r="H12" t="n">
         <v>41.31829566194965</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T12" t="n">
         <v>128.8768572327044</v>
@@ -1530,19 +1530,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>130.1207500068997</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>26.90273131705424</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>388.8240912665597</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>40.06462947613758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H15" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>189.7631883813242</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>159.1000412385906</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67.65538200560648</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>221.1583134026086</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.3166636533883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2061,16 +2061,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>191.3515187554047</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D20" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.7243908176047</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>24.07382947181808</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2250,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>20.05812230028464</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>159.9414623504218</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>59.01766549720455</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>47.83451426914777</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.4012337133193</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>126.4824865693566</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,10 +2614,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>323.5190143119671</v>
       </c>
       <c r="W26" t="n">
-        <v>129.084621233348</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>159.1000412385906</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.1902710299097111</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>296.16952369695</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>376.2735547898423</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>63.62417508254254</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>74.92290194421743</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>116.9183520828753</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H33" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.4057944284685</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3249,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>388.8240912665597</v>
       </c>
       <c r="C35" t="n">
         <v>424.2958575201043</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.76911877777854</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3325,10 +3325,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>25.45235703611021</v>
       </c>
       <c r="F37" t="n">
-        <v>114.7009448702738</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>228.9867666369125</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3565,13 +3565,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,19 +3666,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>41.06280119062065</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>51.67323407875337</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
-        <v>424.2958575201043</v>
+        <v>388.8240912665597</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>238.0068903360387</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3200579030395715</v>
+        <v>168.2506947416798</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3954,16 +3954,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>303.2550596905264</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>203.1869771812474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>72.79119407685955</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>5.498731902745714</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1278.040966659728</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>891.1070171270717</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>462.52534286434</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
         <v>33.94366860160834</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.183430080417</v>
+        <v>366.7696217991695</v>
       </c>
       <c r="X2" t="n">
-        <v>1278.040966659728</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="Y2" t="n">
-        <v>1278.040966659728</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260.2692770611121</v>
+        <v>487.2907080746261</v>
       </c>
       <c r="C4" t="n">
-        <v>87.707565544337</v>
+        <v>314.7289965578511</v>
       </c>
       <c r="D4" t="n">
-        <v>87.707565544337</v>
+        <v>148.8510037593738</v>
       </c>
       <c r="E4" t="n">
-        <v>87.707565544337</v>
+        <v>148.8510037593738</v>
       </c>
       <c r="F4" t="n">
-        <v>87.707565544337</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>87.707565544337</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>87.707565544337</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>1005.1071068273</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>733.0807024135913</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="X4" t="n">
-        <v>487.6889477470038</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="Y4" t="n">
-        <v>260.2692770611121</v>
+        <v>679.1093267936133</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>891.1070171270717</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="C5" t="n">
-        <v>891.1070171270717</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D5" t="n">
-        <v>462.52534286434</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E5" t="n">
         <v>33.94366860160834</v>
@@ -4600,19 +4600,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.183430080417</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X5" t="n">
-        <v>1317.406587611979</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="Y5" t="n">
-        <v>1317.406587611979</v>
+        <v>251.3462593216046</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.0515783881802</v>
+        <v>864.9853452427376</v>
       </c>
       <c r="C7" t="n">
-        <v>365.0515783881802</v>
+        <v>692.4236337259625</v>
       </c>
       <c r="D7" t="n">
-        <v>365.0515783881802</v>
+        <v>634.6599505886118</v>
       </c>
       <c r="E7" t="n">
-        <v>365.0515783881802</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F7" t="n">
-        <v>365.0515783881802</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H7" t="n">
         <v>122.603617826933</v>
@@ -4731,16 +4731,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4755,22 +4755,22 @@
         <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V7" t="n">
-        <v>864.4976534877803</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W7" t="n">
-        <v>592.4712490740719</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="X7" t="n">
-        <v>592.4712490740719</v>
+        <v>864.9853452427376</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.0515783881802</v>
+        <v>864.9853452427376</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.94366860160834</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="C8" t="n">
-        <v>33.94366860160834</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="D8" t="n">
-        <v>33.94366860160834</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="E8" t="n">
-        <v>33.94366860160834</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H8" t="n">
         <v>33.94366860160834</v>
@@ -4807,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4834,22 +4834,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V8" t="n">
-        <v>1075.344177331261</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W8" t="n">
-        <v>670.4887227422939</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X8" t="n">
-        <v>442.2297923019549</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y8" t="n">
-        <v>33.94366860160834</v>
+        <v>1152.33908412592</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4889,16 +4889,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>892.3220711155946</v>
+        <v>478.3006101632084</v>
       </c>
       <c r="C10" t="n">
-        <v>719.7603595988195</v>
+        <v>478.3006101632084</v>
       </c>
       <c r="D10" t="n">
-        <v>719.7603595988195</v>
+        <v>478.3006101632084</v>
       </c>
       <c r="E10" t="n">
-        <v>550.0023558495568</v>
+        <v>478.3006101632084</v>
       </c>
       <c r="F10" t="n">
-        <v>373.295301811313</v>
+        <v>301.5935561249646</v>
       </c>
       <c r="G10" t="n">
-        <v>207.7040268371407</v>
+        <v>136.0022811507923</v>
       </c>
       <c r="H10" t="n">
-        <v>67.80185252751522</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4971,7 +4971,7 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N10" t="n">
         <v>1181.483761245743</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U10" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V10" t="n">
-        <v>1164.348475529303</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W10" t="n">
-        <v>892.3220711155946</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="X10" t="n">
-        <v>892.3220711155946</v>
+        <v>897.5388995680873</v>
       </c>
       <c r="Y10" t="n">
-        <v>892.3220711155946</v>
+        <v>670.1192288821956</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1697.183430080417</v>
+        <v>725.9559027539632</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.974446717864</v>
+        <v>297.3742284912315</v>
       </c>
       <c r="D11" t="n">
-        <v>890.3927724551322</v>
+        <v>297.3742284912315</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M11" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N11" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O11" t="n">
         <v>687.9235674375537</v>
@@ -5068,25 +5068,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X11" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.183430080417</v>
+        <v>725.9559027539632</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514.6475351736976</v>
+        <v>573.4611952654247</v>
       </c>
       <c r="C13" t="n">
-        <v>342.0858236569226</v>
+        <v>573.4611952654247</v>
       </c>
       <c r="D13" t="n">
-        <v>342.0858236569226</v>
+        <v>407.5832024669475</v>
       </c>
       <c r="E13" t="n">
-        <v>210.6507226398521</v>
+        <v>237.8251987176847</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>61.11814467944092</v>
       </c>
       <c r="G13" t="n">
         <v>33.94366860160834</v>
@@ -5223,28 +5223,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U13" t="n">
-        <v>1451.303983658873</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V13" t="n">
-        <v>1451.303983658873</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="W13" t="n">
-        <v>1179.277579245164</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="X13" t="n">
-        <v>933.8858245785766</v>
+        <v>992.6994846703037</v>
       </c>
       <c r="Y13" t="n">
-        <v>706.4661538926848</v>
+        <v>765.2798139844119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>462.9421322372</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C14" t="n">
-        <v>462.9421322372</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D14" t="n">
-        <v>462.9421322372</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5281,19 +5281,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M14" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N14" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5308,22 +5308,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V14" t="n">
-        <v>1334.566480014244</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W14" t="n">
-        <v>929.7110254252771</v>
+        <v>462.52534286434</v>
       </c>
       <c r="X14" t="n">
-        <v>929.7110254252771</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y14" t="n">
-        <v>889.2417027221078</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D15" t="n">
         <v>338.5686635760967</v>
@@ -5345,37 +5345,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F15" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J15" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M15" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N15" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O15" t="n">
-        <v>874.0494664914149</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P15" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q15" t="n">
         <v>1580.010651986078</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>68.4625259617433</v>
       </c>
       <c r="K16" t="n">
-        <v>308.7021231727439</v>
+        <v>343.2209805328789</v>
       </c>
       <c r="L16" t="n">
-        <v>509.954387939391</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M16" t="n">
-        <v>509.954387939391</v>
+        <v>761.43086230084</v>
       </c>
       <c r="N16" t="n">
-        <v>930.0072868842942</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O16" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>1484.085620521825</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>1212.059216108117</v>
       </c>
       <c r="X16" t="n">
-        <v>453.1819580064872</v>
+        <v>966.6674614415294</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.7622873205955</v>
+        <v>966.6674614415294</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.94366860160834</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C17" t="n">
-        <v>33.94366860160834</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D17" t="n">
-        <v>33.94366860160834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E17" t="n">
         <v>33.94366860160834</v>
@@ -5515,19 +5515,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J17" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K17" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L17" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M17" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O17" t="n">
         <v>687.9235674375537</v>
@@ -5545,22 +5545,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1253.723967193245</v>
       </c>
       <c r="V17" t="n">
-        <v>1334.566480014244</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="W17" t="n">
-        <v>929.7110254252771</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="X17" t="n">
-        <v>510.5685620045878</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="Y17" t="n">
-        <v>102.2824383042412</v>
+        <v>891.1070171270717</v>
       </c>
     </row>
     <row r="18">
@@ -5600,16 +5600,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P18" t="n">
         <v>1159.957753041174</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.94366860160834</v>
+        <v>469.0686756144395</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>469.0686756144395</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>469.0686756144395</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>437.4083829648294</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M19" t="n">
-        <v>857.4612819097326</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T19" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U19" t="n">
-        <v>1013.629614209975</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V19" t="n">
-        <v>726.6741060804052</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W19" t="n">
-        <v>454.6477016666967</v>
+        <v>879.4267572036415</v>
       </c>
       <c r="X19" t="n">
-        <v>261.3633392875001</v>
+        <v>634.035002537054</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.94366860160834</v>
+        <v>634.035002537054</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>891.1070171270717</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="C20" t="n">
-        <v>462.52534286434</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="D20" t="n">
-        <v>33.94366860160834</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="E20" t="n">
-        <v>33.94366860160834</v>
+        <v>860.3156321173392</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G20" t="n">
         <v>33.94366860160834</v>
@@ -5752,19 +5752,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N20" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
         <v>687.9235674375537</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1672.866430613934</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>1672.866430613934</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>1672.866430613934</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>1310.249480547761</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>1310.249480547761</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>891.1070171270717</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>891.1070171270717</v>
+        <v>1288.897306380071</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D21" t="n">
         <v>338.5686635760967</v>
@@ -5819,10 +5819,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H21" t="n">
         <v>33.94366860160834</v>
@@ -5834,19 +5834,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L21" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M21" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N21" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O21" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P21" t="n">
         <v>1159.957753041174</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>739.1091603006143</v>
+        <v>630.8013258914481</v>
       </c>
       <c r="C22" t="n">
-        <v>566.5474487838393</v>
+        <v>458.239614374673</v>
       </c>
       <c r="D22" t="n">
-        <v>400.669455985362</v>
+        <v>292.3616215761957</v>
       </c>
       <c r="E22" t="n">
-        <v>230.9114522360993</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F22" t="n">
-        <v>54.20439819785545</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G22" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H22" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I22" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M22" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N22" t="n">
-        <v>1146.964903885608</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O22" t="n">
-        <v>1566.63415311139</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
@@ -5937,25 +5937,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T22" t="n">
-        <v>1675.765608785789</v>
+        <v>1354.967207406592</v>
       </c>
       <c r="U22" t="n">
-        <v>1675.765608785789</v>
+        <v>1354.967207406592</v>
       </c>
       <c r="V22" t="n">
-        <v>1675.765608785789</v>
+        <v>1068.011699277023</v>
       </c>
       <c r="W22" t="n">
-        <v>1403.739204372081</v>
+        <v>1068.011699277023</v>
       </c>
       <c r="X22" t="n">
-        <v>1158.347449705493</v>
+        <v>822.6199446104351</v>
       </c>
       <c r="Y22" t="n">
-        <v>930.9277790196015</v>
+        <v>822.6199446104351</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>521.4249017249305</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="C23" t="n">
-        <v>521.4249017249305</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D23" t="n">
-        <v>461.8110981924006</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E23" t="n">
-        <v>461.8110981924006</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F23" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G23" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
@@ -5992,16 +5992,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L23" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M23" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N23" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O23" t="n">
         <v>687.9235674375537</v>
@@ -6016,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1565.213865083297</v>
       </c>
       <c r="U23" t="n">
-        <v>1697.183430080417</v>
+        <v>1565.213865083297</v>
       </c>
       <c r="V23" t="n">
-        <v>1334.566480014244</v>
+        <v>1565.213865083297</v>
       </c>
       <c r="W23" t="n">
-        <v>929.7110254252771</v>
+        <v>1160.35841049433</v>
       </c>
       <c r="X23" t="n">
-        <v>929.7110254252771</v>
+        <v>1160.35841049433</v>
       </c>
       <c r="Y23" t="n">
-        <v>521.4249017249305</v>
+        <v>752.0722867939837</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1113.00182921349</v>
+        <v>327.5817488438802</v>
       </c>
       <c r="C25" t="n">
-        <v>940.4401176967148</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="D25" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E25" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F25" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M25" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N25" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O25" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
@@ -6177,22 +6177,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T25" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U25" t="n">
-        <v>1516.524240083786</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V25" t="n">
-        <v>1229.568731954216</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W25" t="n">
-        <v>1229.568731954216</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="X25" t="n">
-        <v>1229.568731954216</v>
+        <v>746.820038248759</v>
       </c>
       <c r="Y25" t="n">
-        <v>1229.568731954216</v>
+        <v>519.4003675628674</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>724.8884439079882</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C26" t="n">
-        <v>724.8884439079882</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D26" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E26" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F26" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G26" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H26" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I26" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K26" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L26" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M26" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N26" t="n">
-        <v>687.9235674375537</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O26" t="n">
         <v>687.9235674375537</v>
@@ -6262,16 +6262,16 @@
         <v>1217.893900270473</v>
       </c>
       <c r="V26" t="n">
-        <v>855.2769502042993</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="W26" t="n">
-        <v>724.8884439079882</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="X26" t="n">
-        <v>724.8884439079882</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="Y26" t="n">
-        <v>724.8884439079882</v>
+        <v>891.1070171270717</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,34 +6293,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J27" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M27" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N27" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O27" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>194.6507809638211</v>
+        <v>546.4789121470969</v>
       </c>
       <c r="C28" t="n">
-        <v>33.94366860160834</v>
+        <v>546.4789121470969</v>
       </c>
       <c r="D28" t="n">
-        <v>33.94366860160834</v>
+        <v>380.6009193486196</v>
       </c>
       <c r="E28" t="n">
-        <v>33.94366860160834</v>
+        <v>210.8429155993569</v>
       </c>
       <c r="F28" t="n">
-        <v>33.94366860160834</v>
+        <v>34.1358615611131</v>
       </c>
       <c r="G28" t="n">
         <v>33.94366860160834</v>
@@ -6408,28 +6408,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T28" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U28" t="n">
-        <v>1172.870982911978</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V28" t="n">
-        <v>885.9154747824084</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W28" t="n">
-        <v>613.8890703687</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X28" t="n">
-        <v>613.8890703687</v>
+        <v>738.2975308660841</v>
       </c>
       <c r="Y28" t="n">
-        <v>386.4693996828083</v>
+        <v>738.2975308660841</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>890.8095618279922</v>
+        <v>1050.816632468548</v>
       </c>
       <c r="C29" t="n">
-        <v>890.8095618279922</v>
+        <v>622.2349582058164</v>
       </c>
       <c r="D29" t="n">
-        <v>890.8095618279922</v>
+        <v>622.2349582058164</v>
       </c>
       <c r="E29" t="n">
-        <v>462.2278875652606</v>
+        <v>622.2349582058164</v>
       </c>
       <c r="F29" t="n">
-        <v>34.36045797446834</v>
+        <v>622.2349582058164</v>
       </c>
       <c r="G29" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H29" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I29" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J29" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K29" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K29" t="n">
-        <v>687.9235674375537</v>
-      </c>
       <c r="L29" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M29" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N29" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O29" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P29" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q29" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R29" t="n">
         <v>1697.183430080417</v>
@@ -6493,22 +6493,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U29" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V29" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W29" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X29" t="n">
-        <v>1317.1091323129</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y29" t="n">
-        <v>1317.1091323129</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="30">
@@ -6524,10 +6524,10 @@
         <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
-        <v>338.5686635760968</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E30" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
         <v>161.0644105192121</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>440.5302273853659</v>
+        <v>445.2593640829014</v>
       </c>
       <c r="C31" t="n">
-        <v>267.9685158685908</v>
+        <v>445.2593640829014</v>
       </c>
       <c r="D31" t="n">
-        <v>267.9685158685908</v>
+        <v>279.3813712844241</v>
       </c>
       <c r="E31" t="n">
-        <v>98.21051211932809</v>
+        <v>109.6233675351613</v>
       </c>
       <c r="F31" t="n">
-        <v>33.94366860160834</v>
+        <v>109.6233675351613</v>
       </c>
       <c r="G31" t="n">
         <v>33.94366860160834</v>
@@ -6630,10 +6630,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N31" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O31" t="n">
         <v>1181.483761245743</v>
@@ -6645,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T31" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U31" t="n">
-        <v>1418.750429333523</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V31" t="n">
-        <v>1131.794921203953</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W31" t="n">
-        <v>859.7685167902448</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X31" t="n">
-        <v>859.7685167902448</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="Y31" t="n">
-        <v>632.348846104353</v>
+        <v>637.0779828018885</v>
       </c>
     </row>
     <row r="32">
@@ -6703,19 +6703,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O32" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P32" t="n">
         <v>1107.976466382457</v>
@@ -6727,22 +6727,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W32" t="n">
-        <v>1579.084084542159</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X32" t="n">
-        <v>1159.94162112147</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y32" t="n">
         <v>751.6554974211238</v>
@@ -6758,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6767,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.94366860160834</v>
+        <v>513.925357821747</v>
       </c>
       <c r="C34" t="n">
-        <v>33.94366860160834</v>
+        <v>341.3636463049719</v>
       </c>
       <c r="D34" t="n">
-        <v>33.94366860160834</v>
+        <v>341.3636463049719</v>
       </c>
       <c r="E34" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F34" t="n">
         <v>33.94366860160834</v>
@@ -6861,49 +6861,49 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L34" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M34" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N34" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O34" t="n">
-        <v>1233.160939331176</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P34" t="n">
-        <v>1580.667833301518</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T34" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U34" t="n">
-        <v>1172.870982911978</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V34" t="n">
-        <v>885.9154747824084</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W34" t="n">
-        <v>613.8890703687</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X34" t="n">
-        <v>368.4973157021125</v>
+        <v>705.7439765407341</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.0776450162207</v>
+        <v>705.7439765407341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>751.6554974211238</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H35" t="n">
         <v>33.94366860160834</v>
@@ -6940,16 +6940,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M35" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N35" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O35" t="n">
         <v>687.9235674375537</v>
@@ -6964,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1635.800481820035</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1415.733254693074</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1156.51095201009</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V35" t="n">
-        <v>1156.51095201009</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W35" t="n">
-        <v>751.6554974211238</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="X35" t="n">
-        <v>751.6554974211238</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="Y35" t="n">
-        <v>751.6554974211238</v>
+        <v>855.2769502042993</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7004,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>322.3649203913872</v>
+        <v>398.0928244684872</v>
       </c>
       <c r="C37" t="n">
-        <v>149.8032088746122</v>
+        <v>225.5311129517121</v>
       </c>
       <c r="D37" t="n">
-        <v>149.8032088746122</v>
+        <v>59.65312015323482</v>
       </c>
       <c r="E37" t="n">
-        <v>149.8032088746122</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F37" t="n">
         <v>33.94366860160834</v>
@@ -7095,19 +7095,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K37" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L37" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M37" t="n">
-        <v>1181.483761245743</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N37" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7119,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T37" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U37" t="n">
-        <v>1013.629614209975</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V37" t="n">
-        <v>1013.629614209975</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W37" t="n">
-        <v>741.6032097962661</v>
+        <v>870.9042498209665</v>
       </c>
       <c r="X37" t="n">
-        <v>741.6032097962661</v>
+        <v>625.5124951543789</v>
       </c>
       <c r="Y37" t="n">
-        <v>514.1835391103743</v>
+        <v>398.0928244684872</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>667.0580536309141</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C38" t="n">
-        <v>667.0580536309141</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D38" t="n">
-        <v>667.0580536309141</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E38" t="n">
-        <v>667.0580536309141</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F38" t="n">
-        <v>667.0580536309141</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G38" t="n">
-        <v>265.6602222541779</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
@@ -7201,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V38" t="n">
-        <v>1075.344177331261</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W38" t="n">
-        <v>1075.344177331261</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X38" t="n">
-        <v>1075.344177331261</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y38" t="n">
-        <v>667.0580536309141</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I39" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J39" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K39" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M39" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N39" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O39" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P39" t="n">
         <v>1159.957753041174</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>760.0392898402852</v>
+        <v>549.0904269551045</v>
       </c>
       <c r="C40" t="n">
-        <v>587.4775783235101</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="D40" t="n">
-        <v>587.4775783235101</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E40" t="n">
-        <v>417.7195745742474</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F40" t="n">
-        <v>241.0125205360036</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G40" t="n">
-        <v>75.42124556183123</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H40" t="n">
         <v>33.94366860160834</v>
@@ -7332,19 +7332,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K40" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L40" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M40" t="n">
-        <v>1181.483761245743</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N40" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7359,25 +7359,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T40" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U40" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V40" t="n">
-        <v>1451.303983658873</v>
+        <v>1485.746875440279</v>
       </c>
       <c r="W40" t="n">
-        <v>1179.277579245164</v>
+        <v>1213.720471026571</v>
       </c>
       <c r="X40" t="n">
-        <v>1179.277579245164</v>
+        <v>968.3287163599834</v>
       </c>
       <c r="Y40" t="n">
-        <v>951.8579085592723</v>
+        <v>740.9090456740917</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1153.05332879786</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="C41" t="n">
-        <v>1153.05332879786</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="D41" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E41" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F41" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G41" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
         <v>33.94366860160834</v>
@@ -7411,19 +7411,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J41" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K41" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O41" t="n">
         <v>687.9235674375537</v>
@@ -7438,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U41" t="n">
-        <v>1393.464329137293</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V41" t="n">
-        <v>1153.05332879786</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W41" t="n">
-        <v>1153.05332879786</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="X41" t="n">
-        <v>1153.05332879786</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="Y41" t="n">
-        <v>1153.05332879786</v>
+        <v>855.2769502042993</v>
       </c>
     </row>
     <row r="42">
@@ -7496,16 +7496,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M42" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N42" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O42" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>262.8290829477096</v>
+        <v>546.4789121470969</v>
       </c>
       <c r="C43" t="n">
-        <v>262.5057921365585</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="D43" t="n">
-        <v>262.5057921365585</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E43" t="n">
-        <v>262.5057921365585</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F43" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G43" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H43" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>452.1535503695694</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M43" t="n">
-        <v>452.1535503695694</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N43" t="n">
-        <v>872.2064493144727</v>
+        <v>1235.38760622724</v>
       </c>
       <c r="O43" t="n">
-        <v>1291.875698540254</v>
+        <v>1235.38760622724</v>
       </c>
       <c r="P43" t="n">
-        <v>1639.382592510596</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q43" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S43" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T43" t="n">
-        <v>1292.062614956869</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U43" t="n">
-        <v>1013.629614209975</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V43" t="n">
-        <v>726.6741060804052</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W43" t="n">
-        <v>454.6477016666967</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X43" t="n">
-        <v>454.6477016666967</v>
+        <v>738.2975308660841</v>
       </c>
       <c r="Y43" t="n">
-        <v>454.6477016666967</v>
+        <v>738.2975308660841</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>724.4716545351282</v>
+        <v>1057.973739532767</v>
       </c>
       <c r="C44" t="n">
-        <v>724.4716545351282</v>
+        <v>629.3920652700349</v>
       </c>
       <c r="D44" t="n">
-        <v>724.4716545351282</v>
+        <v>629.3920652700349</v>
       </c>
       <c r="E44" t="n">
-        <v>724.4716545351282</v>
+        <v>629.3920652700349</v>
       </c>
       <c r="F44" t="n">
-        <v>724.4716545351282</v>
+        <v>629.3920652700349</v>
       </c>
       <c r="G44" t="n">
         <v>323.0738231583921</v>
@@ -7648,7 +7648,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
         <v>687.9235674375537</v>
@@ -7678,22 +7678,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U44" t="n">
-        <v>1491.944059190268</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V44" t="n">
-        <v>1129.327109124095</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W44" t="n">
-        <v>724.4716545351282</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X44" t="n">
-        <v>724.4716545351282</v>
+        <v>1057.973739532767</v>
       </c>
       <c r="Y44" t="n">
-        <v>724.4716545351282</v>
+        <v>1057.973739532767</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
         <v>338.5686635760967</v>
@@ -7715,10 +7715,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
@@ -7733,16 +7733,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
         <v>1159.957753041174</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.7153521607122</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="C46" t="n">
-        <v>686.1888934972177</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="D46" t="n">
-        <v>520.3109006987404</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E46" t="n">
-        <v>350.5528969494776</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F46" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
         <v>33.94366860160834</v>
@@ -7812,16 +7812,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>813.4916901053949</v>
+        <v>688.8848573262783</v>
       </c>
       <c r="M46" t="n">
-        <v>813.4916901053949</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N46" t="n">
-        <v>813.4916901053949</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P46" t="n">
         <v>1528.990655216085</v>
@@ -7839,19 +7839,19 @@
         <v>1292.062614956869</v>
       </c>
       <c r="U46" t="n">
-        <v>1292.062614956869</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V46" t="n">
-        <v>1005.1071068273</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W46" t="n">
-        <v>1005.1071068273</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X46" t="n">
-        <v>759.7153521607122</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y46" t="n">
-        <v>759.7153521607122</v>
+        <v>203.7016723508711</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8379,19 +8379,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8455,7 +8455,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8537,19 +8537,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8619,10 +8619,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -8774,7 +8774,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8929,11 +8929,11 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q15" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>288.796249040161</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>203.2851159259061</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -9248,19 +9248,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>407.5401155184051</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -9482,22 +9482,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P21" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L21" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9570,16 +9570,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
@@ -9719,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K26" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -9950,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K29" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10278,13 +10278,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10351,7 +10351,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P32" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -10509,7 +10509,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>225.3346227128309</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>117.6925219988882</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M37" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11059,14 +11059,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -11144,19 +11144,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.38468441396094</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K44" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K44" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>424.2958575201044</v>
@@ -11460,19 +11460,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -22549,13 +22549,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>50.69643805108126</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>85.45334512089687</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22704,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>61.18172169167359</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -22725,7 +22725,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>34.54709175977005</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22770,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>218.5324832756146</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -22840,16 +22840,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>38.97196474272886</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22944,22 +22944,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>107.0331665645153</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>62.41503383532515</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23032,13 +23032,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -23074,22 +23074,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>188.9746976505468</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>339.3039944802362</v>
       </c>
     </row>
     <row r="9">
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>37.46512614283715</v>
       </c>
       <c r="I10" t="n">
-        <v>54.25374764642361</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,16 +23260,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>59.33415455948301</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>169.0533645816922</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23278,7 +23278,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23326,7 +23326,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>37.93967370487042</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>137.0326309073764</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>11.98280877651734</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>364.1386329872055</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>94.32276466694961</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>83.837795881331</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>354.3811927744522</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23785,22 +23785,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>35.47176625354467</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>26.58376887840896</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -23898,10 +23898,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -23910,7 +23910,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>2.864364477279594</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.74152560618328</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -24028,16 +24028,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>143.877239924146</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>83.47918960690745</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>372.5330214800953</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>170.032040586544</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.49919881847789</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>44.3536078322507</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24457,13 +24457,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>35.47176625354462</v>
       </c>
       <c r="W26" t="n">
-        <v>271.722278809729</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>11.73605316301666</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>163.7450911945209</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>101.2143293660187</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
@@ -24745,7 +24745,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>38.67748399664015</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>111.3158084153188</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>89.01246028021318</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>283.8885479602017</v>
+        <v>381.0370168657346</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>38.65462928330157</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>33.21248351349902</v>
       </c>
       <c r="C35" t="n">
         <v>9.465190568306582</v>
@@ -25171,7 +25171,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>22.04623630022282</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>142.6080666756599</v>
       </c>
       <c r="F37" t="n">
-        <v>60.23903862758758</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25405,13 +25405,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>57.25208637430342</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>381.0370168657346</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>97.44035137590856</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,22 +25599,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>232.4127189695205</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
-        <v>7.254829457195569</v>
+        <v>42.72659571074024</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25642,10 +25642,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>120.983890229473</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.5160364985677</v>
+        <v>2.585399659927532</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -25867,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25879,7 +25879,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>94.12879337244237</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>53.44310247490591</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,22 +26025,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>98.04490032474776</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>219.6467420762871</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>366861.188998819</v>
+        <v>366861.1889988192</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>366861.1889988193</v>
+        <v>366861.1889988192</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>366861.1889988191</v>
+        <v>366861.1889988192</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>366861.1889988191</v>
+        <v>366861.1889988192</v>
       </c>
     </row>
     <row r="15">
@@ -26337,25 +26337,25 @@
         <v>66111.28565914044</v>
       </c>
       <c r="J2" t="n">
-        <v>66111.28565914044</v>
+        <v>66111.28565914046</v>
       </c>
       <c r="K2" t="n">
-        <v>66111.28565914044</v>
+        <v>66111.28565914043</v>
       </c>
       <c r="L2" t="n">
         <v>66111.28565914044</v>
       </c>
       <c r="M2" t="n">
+        <v>66111.28565914046</v>
+      </c>
+      <c r="N2" t="n">
         <v>66111.28565914044</v>
       </c>
-      <c r="N2" t="n">
-        <v>66111.28565914043</v>
-      </c>
       <c r="O2" t="n">
-        <v>66111.28565914043</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="P2" t="n">
-        <v>66111.28565914043</v>
+        <v>66111.28565914044</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148137.0251242152</v>
+        <v>-148876.3817361309</v>
       </c>
       <c r="C6" t="n">
-        <v>-5945.7244645053</v>
+        <v>-6685.081076420953</v>
       </c>
       <c r="D6" t="n">
-        <v>-5945.724464505314</v>
+        <v>-6685.081076420967</v>
       </c>
       <c r="E6" t="n">
-        <v>27681.8755354947</v>
+        <v>26942.51892357905</v>
       </c>
       <c r="F6" t="n">
-        <v>27681.8755354947</v>
+        <v>26942.51892357905</v>
       </c>
       <c r="G6" t="n">
-        <v>27681.8755354947</v>
+        <v>26942.51892357905</v>
       </c>
       <c r="H6" t="n">
-        <v>27681.8755354947</v>
+        <v>26942.51892357905</v>
       </c>
       <c r="I6" t="n">
-        <v>27681.8755354947</v>
+        <v>26942.51892357905</v>
       </c>
       <c r="J6" t="n">
-        <v>-83332.58980949549</v>
+        <v>-84071.94642141112</v>
       </c>
       <c r="K6" t="n">
-        <v>27681.8755354947</v>
+        <v>26942.51892357903</v>
       </c>
       <c r="L6" t="n">
-        <v>27681.8755354947</v>
+        <v>26942.51892357905</v>
       </c>
       <c r="M6" t="n">
-        <v>27681.87553549471</v>
+        <v>26942.51892357906</v>
       </c>
       <c r="N6" t="n">
-        <v>27681.87553549468</v>
+        <v>26942.51892357905</v>
       </c>
       <c r="O6" t="n">
-        <v>27681.87553549468</v>
+        <v>26942.51892357905</v>
       </c>
       <c r="P6" t="n">
-        <v>27681.87553549468</v>
+        <v>26942.51892357905</v>
       </c>
     </row>
   </sheetData>
@@ -34780,22 +34780,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -35099,19 +35099,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35175,7 +35175,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35257,19 +35257,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35339,10 +35339,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -35494,7 +35494,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35649,11 +35649,11 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
@@ -35664,7 +35664,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q15" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>288.796249040161</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>203.2851159259061</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -35968,19 +35968,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>407.5401155184051</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -36202,22 +36202,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P21" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L21" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36290,16 +36290,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
@@ -36439,10 +36439,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,10 +36451,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K26" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K29" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36846,16 +36846,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36998,13 +36998,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -37071,7 +37071,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P32" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -37229,7 +37229,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>225.3346227128309</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -37247,7 +37247,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>117.6925219988882</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M37" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37779,14 +37779,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -37864,19 +37864,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.38468441396094</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K44" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K44" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>424.2958575201044</v>
@@ -38180,19 +38180,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>
